--- a/Pruebas/Error1.xlsx
+++ b/Pruebas/Error1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CQ1"/>
+  <dimension ref="A1:CN1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,289 +423,280 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.1051574442917414</v>
+        <v>0.04608450183031568</v>
       </c>
       <c r="B1" t="n">
-        <v>0.09631665895395394</v>
+        <v>0.0291321195248204</v>
       </c>
       <c r="C1" t="n">
-        <v>0.1019521887719629</v>
+        <v>0.03077944663007371</v>
       </c>
       <c r="D1" t="n">
-        <v>0.1198486390191594</v>
+        <v>0.03566518113232895</v>
       </c>
       <c r="E1" t="n">
-        <v>0.1611938740734473</v>
+        <v>0.06253669982648863</v>
       </c>
       <c r="F1" t="n">
-        <v>0.2019351900173735</v>
+        <v>0.090926971259377</v>
       </c>
       <c r="G1" t="n">
-        <v>0.2636943427982454</v>
+        <v>0.1254277956146506</v>
       </c>
       <c r="H1" t="n">
-        <v>0.308536403771474</v>
+        <v>0.2091698387007782</v>
       </c>
       <c r="I1" t="n">
-        <v>0.3356283202655383</v>
+        <v>0.2611496408371515</v>
       </c>
       <c r="J1" t="n">
-        <v>0.3487875254613209</v>
+        <v>0.2805841305257861</v>
       </c>
       <c r="K1" t="n">
-        <v>0.3450714046042511</v>
+        <v>0.273330405584688</v>
       </c>
       <c r="L1" t="n">
-        <v>0.3351650403127241</v>
+        <v>0.253531358734217</v>
       </c>
       <c r="M1" t="n">
-        <v>0.3652241520623049</v>
+        <v>0.2341672482534032</v>
       </c>
       <c r="N1" t="n">
-        <v>0.4512224096605393</v>
+        <v>0.2202443803688043</v>
       </c>
       <c r="O1" t="n">
-        <v>0.6889796327108553</v>
+        <v>0.2101166934608093</v>
       </c>
       <c r="P1" t="n">
-        <v>1.04285055592294</v>
+        <v>0.2011913840023535</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.373778843936863</v>
+        <v>0.1923668510561568</v>
       </c>
       <c r="R1" t="n">
-        <v>1.650988909040831</v>
+        <v>0.1834440959059083</v>
       </c>
       <c r="S1" t="n">
-        <v>1.735286318454149</v>
+        <v>0.1747287062388533</v>
       </c>
       <c r="T1" t="n">
-        <v>1.715208921643204</v>
+        <v>0.1666043905305347</v>
       </c>
       <c r="U1" t="n">
-        <v>1.766934938730707</v>
+        <v>0.1589461621264582</v>
       </c>
       <c r="V1" t="n">
-        <v>1.785820457365247</v>
+        <v>0.1522552171382032</v>
       </c>
       <c r="W1" t="n">
-        <v>1.781520609678242</v>
+        <v>0.1462604328000654</v>
       </c>
       <c r="X1" t="n">
-        <v>1.744258437052226</v>
+        <v>0.1410054407636076</v>
       </c>
       <c r="Y1" t="n">
-        <v>1.685144220938588</v>
+        <v>0.1372963412675249</v>
       </c>
       <c r="Z1" t="n">
-        <v>1.629042533000497</v>
+        <v>0.1347713813184258</v>
       </c>
       <c r="AA1" t="n">
-        <v>1.572224948224186</v>
+        <v>0.1343364056801615</v>
       </c>
       <c r="AB1" t="n">
-        <v>1.517552465902656</v>
+        <v>0.1370825178747746</v>
       </c>
       <c r="AC1" t="n">
-        <v>1.465862874355722</v>
+        <v>0.1569079583691347</v>
       </c>
       <c r="AD1" t="n">
-        <v>1.417633690925093</v>
+        <v>0.1894287267891564</v>
       </c>
       <c r="AE1" t="n">
-        <v>1.372415401563962</v>
+        <v>0.2644729834812176</v>
       </c>
       <c r="AF1" t="n">
-        <v>1.329997087068607</v>
+        <v>0.3160489522583329</v>
       </c>
       <c r="AG1" t="n">
-        <v>1.290088342208056</v>
+        <v>0.3335956880070514</v>
       </c>
       <c r="AH1" t="n">
-        <v>1.252436799789834</v>
+        <v>0.3255779518854183</v>
       </c>
       <c r="AI1" t="n">
-        <v>1.216852871688321</v>
+        <v>0.3239086601286854</v>
       </c>
       <c r="AJ1" t="n">
-        <v>1.183161207350673</v>
+        <v>0.327149288831263</v>
       </c>
       <c r="AK1" t="n">
-        <v>1.151216605662278</v>
+        <v>0.3286897133829976</v>
       </c>
       <c r="AL1" t="n">
-        <v>1.120972001067965</v>
+        <v>0.3268107722040011</v>
       </c>
       <c r="AM1" t="n">
-        <v>1.092277085851375</v>
+        <v>0.3225794906674873</v>
       </c>
       <c r="AN1" t="n">
-        <v>1.065097530083556</v>
+        <v>0.316150125533007</v>
       </c>
       <c r="AO1" t="n">
-        <v>1.03922505808048</v>
+        <v>0.3089973687621985</v>
       </c>
       <c r="AP1" t="n">
-        <v>1.014533706403903</v>
+        <v>0.3022380074855315</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.9909792556263606</v>
+        <v>0.2959639342893191</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.9684798935433917</v>
+        <v>0.2899011121015374</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.9470018941250942</v>
+        <v>0.2841427663196578</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.9264641016864377</v>
+        <v>0.2783798108172485</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.9068258575360774</v>
+        <v>0.272832682295644</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.8880059912832613</v>
+        <v>0.2672576919840076</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.8699766543838124</v>
+        <v>0.2618782838955556</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.8525915308299745</v>
+        <v>0.256703567867839</v>
       </c>
       <c r="AY1" t="n">
-        <v>0.8359638083962841</v>
+        <v>0.2517060317268122</v>
       </c>
       <c r="AZ1" t="n">
-        <v>0.8199122759824081</v>
+        <v>0.2468949607508053</v>
       </c>
       <c r="BA1" t="n">
-        <v>0.8044502171623241</v>
+        <v>0.2422513442673072</v>
       </c>
       <c r="BB1" t="n">
-        <v>0.7896078149436384</v>
+        <v>0.2377812940416582</v>
       </c>
       <c r="BC1" t="n">
-        <v>0.7753434890392097</v>
+        <v>0.2334842204596805</v>
       </c>
       <c r="BD1" t="n">
-        <v>0.7615887036916759</v>
+        <v>0.229342044608281</v>
       </c>
       <c r="BE1" t="n">
-        <v>0.7482348240593801</v>
+        <v>0.2253438223113446</v>
       </c>
       <c r="BF1" t="n">
-        <v>0.735341415482782</v>
+        <v>0.2214935685601391</v>
       </c>
       <c r="BG1" t="n">
-        <v>0.7228850645413667</v>
+        <v>0.2177622942273963</v>
       </c>
       <c r="BH1" t="n">
-        <v>0.7108396877045944</v>
+        <v>0.2141519114323152</v>
       </c>
       <c r="BI1" t="n">
-        <v>0.6991891383535667</v>
+        <v>0.2106571112739359</v>
       </c>
       <c r="BJ1" t="n">
-        <v>0.6879144205796881</v>
+        <v>0.2072716056520308</v>
       </c>
       <c r="BK1" t="n">
-        <v>0.677014216688994</v>
+        <v>0.2039907712563829</v>
       </c>
       <c r="BL1" t="n">
-        <v>0.6664427825513115</v>
+        <v>0.2008105887890276</v>
       </c>
       <c r="BM1" t="n">
-        <v>0.6561960762109723</v>
+        <v>0.1977275280486258</v>
       </c>
       <c r="BN1" t="n">
-        <v>0.6462691607137648</v>
+        <v>0.1947382103768777</v>
       </c>
       <c r="BO1" t="n">
-        <v>0.6366293864145329</v>
+        <v>0.1918381830341271</v>
       </c>
       <c r="BP1" t="n">
-        <v>0.6272731147770013</v>
+        <v>0.189023323261378</v>
       </c>
       <c r="BQ1" t="n">
-        <v>0.6181880215216242</v>
+        <v>0.1862899229404218</v>
       </c>
       <c r="BR1" t="n">
-        <v>0.6093643763502187</v>
+        <v>0.1836351030152868</v>
       </c>
       <c r="BS1" t="n">
-        <v>0.6007874069499738</v>
+        <v>0.1810550893429234</v>
       </c>
       <c r="BT1" t="n">
-        <v>0.5924470845673027</v>
+        <v>0.1785470688771461</v>
       </c>
       <c r="BU1" t="n">
-        <v>0.5843401742953376</v>
+        <v>0.1761077949974747</v>
       </c>
       <c r="BV1" t="n">
-        <v>0.5764496845447098</v>
+        <v>0.1737344613986867</v>
       </c>
       <c r="BW1" t="n">
-        <v>0.568769607739118</v>
+        <v>0.1714244219446403</v>
       </c>
       <c r="BX1" t="n">
-        <v>0.5612916381599294</v>
+        <v>0.1691756733232075</v>
       </c>
       <c r="BY1" t="n">
-        <v>0.5540104539783568</v>
+        <v>0.1669851115390585</v>
       </c>
       <c r="BZ1" t="n">
-        <v>0.5469164645393402</v>
+        <v>0.1648508052713817</v>
       </c>
       <c r="CA1" t="n">
-        <v>0.5400156363712452</v>
+        <v>0.1627706877884342</v>
       </c>
       <c r="CB1" t="n">
-        <v>0.5332734506488634</v>
+        <v>0.1607425360846576</v>
       </c>
       <c r="CC1" t="n">
-        <v>0.5266982879122259</v>
+        <v>0.1587645489238196</v>
       </c>
       <c r="CD1" t="n">
-        <v>0.5202873581116368</v>
+        <v>0.1568344813126129</v>
       </c>
       <c r="CE1" t="n">
-        <v>0.5140270226419343</v>
+        <v>0.1549509266473127</v>
       </c>
       <c r="CF1" t="n">
-        <v>0.5079221945728305</v>
+        <v>0.1531122326470625</v>
       </c>
       <c r="CG1" t="n">
-        <v>0.5019499012367401</v>
+        <v>0.1513165212885546</v>
       </c>
       <c r="CH1" t="n">
-        <v>0.4961746855457089</v>
+        <v>0.149562779457269</v>
       </c>
       <c r="CI1" t="n">
-        <v>0.4904846225695282</v>
+        <v>0.1478495162547455</v>
       </c>
       <c r="CJ1" t="n">
-        <v>0.4849576666528307</v>
+        <v>0.1461751688373977</v>
       </c>
       <c r="CK1" t="n">
-        <v>0.4795481580554825</v>
+        <v>0.1445384521880202</v>
       </c>
       <c r="CL1" t="n">
-        <v>0.4742553606353428</v>
+        <v>0.1429382663985153</v>
       </c>
       <c r="CM1" t="n">
-        <v>0.4691020660060588</v>
+        <v>0.1413732714577001</v>
       </c>
       <c r="CN1" t="n">
-        <v>0.4640194163428525</v>
-      </c>
-      <c r="CO1" t="n">
-        <v>0.4590320652755522</v>
-      </c>
-      <c r="CP1" t="n">
-        <v>0.454152894740436</v>
-      </c>
-      <c r="CQ1" t="n">
-        <v>0.4493764428770961</v>
+        <v>0.1398425856252264</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/Error1.xlsx
+++ b/Pruebas/Error1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CN1"/>
+  <dimension ref="A1:CL1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,280 +423,274 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.04608450183031568</v>
+        <v>0.1281428939692231</v>
       </c>
       <c r="B1" t="n">
-        <v>0.0291321195248204</v>
+        <v>0.09242219418921321</v>
       </c>
       <c r="C1" t="n">
-        <v>0.03077944663007371</v>
+        <v>0.07212980489325653</v>
       </c>
       <c r="D1" t="n">
-        <v>0.03566518113232895</v>
+        <v>0.06091692419477869</v>
       </c>
       <c r="E1" t="n">
-        <v>0.06253669982648863</v>
+        <v>0.05930940599540572</v>
       </c>
       <c r="F1" t="n">
-        <v>0.090926971259377</v>
+        <v>0.05979917503605236</v>
       </c>
       <c r="G1" t="n">
-        <v>0.1254277956146506</v>
+        <v>0.0629887840642219</v>
       </c>
       <c r="H1" t="n">
-        <v>0.2091698387007782</v>
+        <v>0.05948038555262829</v>
       </c>
       <c r="I1" t="n">
-        <v>0.2611496408371515</v>
+        <v>0.05541887476286564</v>
       </c>
       <c r="J1" t="n">
-        <v>0.2805841305257861</v>
+        <v>0.05269955341215889</v>
       </c>
       <c r="K1" t="n">
-        <v>0.273330405584688</v>
+        <v>0.04995211505023041</v>
       </c>
       <c r="L1" t="n">
-        <v>0.253531358734217</v>
+        <v>0.04858681017593439</v>
       </c>
       <c r="M1" t="n">
-        <v>0.2341672482534032</v>
+        <v>0.04755226077967437</v>
       </c>
       <c r="N1" t="n">
-        <v>0.2202443803688043</v>
+        <v>0.04785934308982846</v>
       </c>
       <c r="O1" t="n">
-        <v>0.2101166934608093</v>
+        <v>0.04701656308507687</v>
       </c>
       <c r="P1" t="n">
-        <v>0.2011913840023535</v>
+        <v>0.04644786569671074</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.1923668510561568</v>
+        <v>0.04639056594157166</v>
       </c>
       <c r="R1" t="n">
-        <v>0.1834440959059083</v>
+        <v>0.0463417410265377</v>
       </c>
       <c r="S1" t="n">
-        <v>0.1747287062388533</v>
+        <v>0.04662486393829399</v>
       </c>
       <c r="T1" t="n">
-        <v>0.1666043905305347</v>
+        <v>0.04631475642188625</v>
       </c>
       <c r="U1" t="n">
-        <v>0.1589461621264582</v>
+        <v>0.04610586134663434</v>
       </c>
       <c r="V1" t="n">
-        <v>0.1522552171382032</v>
+        <v>0.04534936193094793</v>
       </c>
       <c r="W1" t="n">
-        <v>0.1462604328000654</v>
+        <v>0.04403859757233256</v>
       </c>
       <c r="X1" t="n">
-        <v>0.1410054407636076</v>
+        <v>0.04249393184625038</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.1372963412675249</v>
+        <v>0.04085586150855734</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.1347713813184258</v>
+        <v>0.03939499968554561</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.1343364056801615</v>
+        <v>0.03798506443966527</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.1370825178747746</v>
+        <v>0.03673481216952552</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.1569079583691347</v>
+        <v>0.03553570981764852</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.1894287267891564</v>
+        <v>0.03447748195374591</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.2644729834812176</v>
+        <v>0.03350440990773055</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.3160489522583329</v>
+        <v>0.03252173045364709</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.3335956880070514</v>
+        <v>0.03156358235538842</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.3255779518854183</v>
+        <v>0.03065098454213496</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.3239086601286854</v>
+        <v>0.0298263237179773</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.327149288831263</v>
+        <v>0.02902174245554416</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.3286897133829976</v>
+        <v>0.02826451478648294</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.3268107722040011</v>
+        <v>0.02755803022505363</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.3225794906674873</v>
+        <v>0.02688431353245755</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.316150125533007</v>
+        <v>0.02624435624885834</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.3089973687621985</v>
+        <v>0.02563379444040911</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.3022380074855315</v>
+        <v>0.02504174453587134</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.2959639342893191</v>
+        <v>0.0244780586054828</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.2899011121015374</v>
+        <v>0.02393970890256554</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.2841427663196578</v>
+        <v>0.0234249558051412</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.2783798108172485</v>
+        <v>0.02292997143719333</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.272832682295644</v>
+        <v>0.02245191033529095</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.2672576919840076</v>
+        <v>0.0219975500135494</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.2618782838955556</v>
+        <v>0.02155546083817182</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.256703567867839</v>
+        <v>0.02112933860580702</v>
       </c>
       <c r="AY1" t="n">
-        <v>0.2517060317268122</v>
+        <v>0.02071913562432398</v>
       </c>
       <c r="AZ1" t="n">
-        <v>0.2468949607508053</v>
+        <v>0.02032650853107999</v>
       </c>
       <c r="BA1" t="n">
-        <v>0.2422513442673072</v>
+        <v>0.01995128756841075</v>
       </c>
       <c r="BB1" t="n">
-        <v>0.2377812940416582</v>
+        <v>0.01958958914777183</v>
       </c>
       <c r="BC1" t="n">
-        <v>0.2334842204596805</v>
+        <v>0.01924405272067199</v>
       </c>
       <c r="BD1" t="n">
-        <v>0.229342044608281</v>
+        <v>0.01891040866798538</v>
       </c>
       <c r="BE1" t="n">
-        <v>0.2253438223113446</v>
+        <v>0.01858821223464554</v>
       </c>
       <c r="BF1" t="n">
-        <v>0.2214935685601391</v>
+        <v>0.01827826985936531</v>
       </c>
       <c r="BG1" t="n">
-        <v>0.2177622942273963</v>
+        <v>0.01797812747317644</v>
       </c>
       <c r="BH1" t="n">
-        <v>0.2141519114323152</v>
+        <v>0.01768765922776584</v>
       </c>
       <c r="BI1" t="n">
-        <v>0.2106571112739359</v>
+        <v>0.01740670542993738</v>
       </c>
       <c r="BJ1" t="n">
-        <v>0.2072716056520308</v>
+        <v>0.01713241389601266</v>
       </c>
       <c r="BK1" t="n">
-        <v>0.2039907712563829</v>
+        <v>0.01686488196190689</v>
       </c>
       <c r="BL1" t="n">
-        <v>0.2008105887890276</v>
+        <v>0.01660624900517923</v>
       </c>
       <c r="BM1" t="n">
-        <v>0.1977275280486258</v>
+        <v>0.01635410040750666</v>
       </c>
       <c r="BN1" t="n">
-        <v>0.1947382103768777</v>
+        <v>0.01610854250310734</v>
       </c>
       <c r="BO1" t="n">
-        <v>0.1918381830341271</v>
+        <v>0.01586957232368726</v>
       </c>
       <c r="BP1" t="n">
-        <v>0.189023323261378</v>
+        <v>0.01563744432445129</v>
       </c>
       <c r="BQ1" t="n">
-        <v>0.1862899229404218</v>
+        <v>0.01541276147398625</v>
       </c>
       <c r="BR1" t="n">
-        <v>0.1836351030152868</v>
+        <v>0.01519321298372382</v>
       </c>
       <c r="BS1" t="n">
-        <v>0.1810550893429234</v>
+        <v>0.01497970120959643</v>
       </c>
       <c r="BT1" t="n">
-        <v>0.1785470688771461</v>
+        <v>0.01477193025903089</v>
       </c>
       <c r="BU1" t="n">
-        <v>0.1761077949974747</v>
+        <v>0.01456983839820028</v>
       </c>
       <c r="BV1" t="n">
-        <v>0.1737344613986867</v>
+        <v>0.01437327360821848</v>
       </c>
       <c r="BW1" t="n">
-        <v>0.1714244219446403</v>
+        <v>0.01418198811743813</v>
       </c>
       <c r="BX1" t="n">
-        <v>0.1691756733232075</v>
+        <v>0.01399580965865574</v>
       </c>
       <c r="BY1" t="n">
-        <v>0.1669851115390585</v>
+        <v>0.01381448606295256</v>
       </c>
       <c r="BZ1" t="n">
-        <v>0.1648508052713817</v>
+        <v>0.01363789733345125</v>
       </c>
       <c r="CA1" t="n">
-        <v>0.1627706877884342</v>
+        <v>0.01346587657096334</v>
       </c>
       <c r="CB1" t="n">
-        <v>0.1607425360846576</v>
+        <v>0.01329824079877992</v>
       </c>
       <c r="CC1" t="n">
-        <v>0.1587645489238196</v>
+        <v>0.01313498738755343</v>
       </c>
       <c r="CD1" t="n">
-        <v>0.1568344813126129</v>
+        <v>0.01297573934586464</v>
       </c>
       <c r="CE1" t="n">
-        <v>0.1549509266473127</v>
+        <v>0.01282027202347378</v>
       </c>
       <c r="CF1" t="n">
-        <v>0.1531122326470625</v>
+        <v>0.01266859006633044</v>
       </c>
       <c r="CG1" t="n">
-        <v>0.1513165212885546</v>
+        <v>0.01252029001267028</v>
       </c>
       <c r="CH1" t="n">
-        <v>0.149562779457269</v>
+        <v>0.01237539513999622</v>
       </c>
       <c r="CI1" t="n">
-        <v>0.1478495162547455</v>
+        <v>0.01223380417493106</v>
       </c>
       <c r="CJ1" t="n">
-        <v>0.1461751688373977</v>
+        <v>0.01209540661931139</v>
       </c>
       <c r="CK1" t="n">
-        <v>0.1445384521880202</v>
+        <v>0.01196064631067372</v>
       </c>
       <c r="CL1" t="n">
-        <v>0.1429382663985153</v>
-      </c>
-      <c r="CM1" t="n">
-        <v>0.1413732714577001</v>
-      </c>
-      <c r="CN1" t="n">
-        <v>0.1398425856252264</v>
+        <v>0.01182836952252633</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/Error1.xlsx
+++ b/Pruebas/Error1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CL1"/>
+  <dimension ref="A1:CG1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,274 +423,259 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.1281428939692231</v>
+        <v>0.2219520190026448</v>
       </c>
       <c r="B1" t="n">
-        <v>0.09242219418921321</v>
+        <v>0.1598570892368077</v>
       </c>
       <c r="C1" t="n">
-        <v>0.07212980489325653</v>
+        <v>0.1248951605944611</v>
       </c>
       <c r="D1" t="n">
-        <v>0.06091692419477869</v>
+        <v>0.1040602740623999</v>
       </c>
       <c r="E1" t="n">
-        <v>0.05930940599540572</v>
+        <v>0.09105056064828995</v>
       </c>
       <c r="F1" t="n">
-        <v>0.05979917503605236</v>
+        <v>0.08186633053777174</v>
       </c>
       <c r="G1" t="n">
-        <v>0.0629887840642219</v>
+        <v>0.07612582606959785</v>
       </c>
       <c r="H1" t="n">
-        <v>0.05948038555262829</v>
+        <v>0.07130290137676015</v>
       </c>
       <c r="I1" t="n">
-        <v>0.05541887476286564</v>
+        <v>0.06781584320603824</v>
       </c>
       <c r="J1" t="n">
-        <v>0.05269955341215889</v>
+        <v>0.0644669052519338</v>
       </c>
       <c r="K1" t="n">
-        <v>0.04995211505023041</v>
+        <v>0.06077727941645699</v>
       </c>
       <c r="L1" t="n">
-        <v>0.04858681017593439</v>
+        <v>0.05789806543455778</v>
       </c>
       <c r="M1" t="n">
-        <v>0.04755226077967437</v>
+        <v>0.0563033361258612</v>
       </c>
       <c r="N1" t="n">
-        <v>0.04785934308982846</v>
+        <v>0.05538956904987988</v>
       </c>
       <c r="O1" t="n">
-        <v>0.04701656308507687</v>
+        <v>0.05536160131102479</v>
       </c>
       <c r="P1" t="n">
-        <v>0.04644786569671074</v>
+        <v>0.05560913411201231</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.04639056594157166</v>
+        <v>0.05635529631234464</v>
       </c>
       <c r="R1" t="n">
-        <v>0.0463417410265377</v>
+        <v>0.05708785065090551</v>
       </c>
       <c r="S1" t="n">
-        <v>0.04662486393829399</v>
+        <v>0.05739740546259912</v>
       </c>
       <c r="T1" t="n">
-        <v>0.04631475642188625</v>
+        <v>0.05809293177838327</v>
       </c>
       <c r="U1" t="n">
-        <v>0.04610586134663434</v>
+        <v>0.05796506331054287</v>
       </c>
       <c r="V1" t="n">
-        <v>0.04534936193094793</v>
+        <v>0.05735326220742778</v>
       </c>
       <c r="W1" t="n">
-        <v>0.04403859757233256</v>
+        <v>0.05715391125057727</v>
       </c>
       <c r="X1" t="n">
-        <v>0.04249393184625038</v>
+        <v>0.05708855579034938</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.04085586150855734</v>
+        <v>0.05739947595652903</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.03939499968554561</v>
+        <v>0.05719109892944151</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.03798506443966527</v>
+        <v>0.0568835750225578</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.03673481216952552</v>
+        <v>0.05586345365427268</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.03553570981764852</v>
+        <v>0.05464953425422105</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.03447748195374591</v>
+        <v>0.05356260767151159</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.03350440990773055</v>
+        <v>0.05241335883344601</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.03252173045364709</v>
+        <v>0.05120790536874195</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.03156358235538842</v>
+        <v>0.05004207899113067</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.03065098454213496</v>
+        <v>0.04890097744653205</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.0298263237179773</v>
+        <v>0.04777289396364016</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.02902174245554416</v>
+        <v>0.04657755172024063</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.02826451478648294</v>
+        <v>0.04552964538625146</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.02755803022505363</v>
+        <v>0.04443048527521641</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.02688431353245755</v>
+        <v>0.04346389598732782</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.02624435624885834</v>
+        <v>0.04248765143739928</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.02563379444040911</v>
+        <v>0.04158272074424404</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.02504174453587134</v>
+        <v>0.04069893244720849</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.0244780586054828</v>
+        <v>0.03981547148592071</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.02393970890256554</v>
+        <v>0.03896023782245393</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.0234249558051412</v>
+        <v>0.03814041205830097</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.02292997143719333</v>
+        <v>0.03734861442027111</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.02245191033529095</v>
+        <v>0.03659363156902518</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.0219975500135494</v>
+        <v>0.03586384088986634</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.02155546083817182</v>
+        <v>0.03515907417064088</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.02112933860580702</v>
+        <v>0.03447880256670175</v>
       </c>
       <c r="AY1" t="n">
-        <v>0.02071913562432398</v>
+        <v>0.03382229103379886</v>
       </c>
       <c r="AZ1" t="n">
-        <v>0.02032650853107999</v>
+        <v>0.03319453838188084</v>
       </c>
       <c r="BA1" t="n">
-        <v>0.01995128756841075</v>
+        <v>0.03259018921373927</v>
       </c>
       <c r="BB1" t="n">
-        <v>0.01958958914777183</v>
+        <v>0.03200093609798925</v>
       </c>
       <c r="BC1" t="n">
-        <v>0.01924405272067199</v>
+        <v>0.03143162398421762</v>
       </c>
       <c r="BD1" t="n">
-        <v>0.01891040866798538</v>
+        <v>0.03088522092610057</v>
       </c>
       <c r="BE1" t="n">
-        <v>0.01858821223464554</v>
+        <v>0.0303512203486862</v>
       </c>
       <c r="BF1" t="n">
-        <v>0.01827826985936531</v>
+        <v>0.02983821745192684</v>
       </c>
       <c r="BG1" t="n">
-        <v>0.01797812747317644</v>
+        <v>0.02934460056499539</v>
       </c>
       <c r="BH1" t="n">
-        <v>0.01768765922776584</v>
+        <v>0.02886623063559341</v>
       </c>
       <c r="BI1" t="n">
-        <v>0.01740670542993738</v>
+        <v>0.02840252951411333</v>
       </c>
       <c r="BJ1" t="n">
-        <v>0.01713241389601266</v>
+        <v>0.02795292527233361</v>
       </c>
       <c r="BK1" t="n">
-        <v>0.01686488196190689</v>
+        <v>0.02751685843385209</v>
       </c>
       <c r="BL1" t="n">
-        <v>0.01660624900517923</v>
+        <v>0.02709378594771726</v>
       </c>
       <c r="BM1" t="n">
-        <v>0.01635410040750666</v>
+        <v>0.02668318361423509</v>
       </c>
       <c r="BN1" t="n">
-        <v>0.01610854250310734</v>
+        <v>0.02628454744339167</v>
       </c>
       <c r="BO1" t="n">
-        <v>0.01586957232368726</v>
+        <v>0.0258973942757665</v>
       </c>
       <c r="BP1" t="n">
-        <v>0.01563744432445129</v>
+        <v>0.02552126189496308</v>
       </c>
       <c r="BQ1" t="n">
-        <v>0.01541276147398625</v>
+        <v>0.02515570879203354</v>
       </c>
       <c r="BR1" t="n">
-        <v>0.01519321298372382</v>
+        <v>0.02480031369516339</v>
       </c>
       <c r="BS1" t="n">
-        <v>0.01497970120959643</v>
+        <v>0.02445467494498936</v>
       </c>
       <c r="BT1" t="n">
-        <v>0.01477193025903089</v>
+        <v>0.02411840977276988</v>
       </c>
       <c r="BU1" t="n">
-        <v>0.01456983839820028</v>
+        <v>0.02379186973467554</v>
       </c>
       <c r="BV1" t="n">
-        <v>0.01437327360821848</v>
+        <v>0.02347458190200581</v>
       </c>
       <c r="BW1" t="n">
-        <v>0.01418198811743813</v>
+        <v>0.02316547544467069</v>
       </c>
       <c r="BX1" t="n">
-        <v>0.01399580965865574</v>
+        <v>0.02286366995679681</v>
       </c>
       <c r="BY1" t="n">
-        <v>0.01381448606295256</v>
+        <v>0.02256953296224272</v>
       </c>
       <c r="BZ1" t="n">
-        <v>0.01363789733345125</v>
+        <v>0.02228330913118421</v>
       </c>
       <c r="CA1" t="n">
-        <v>0.01346587657096334</v>
+        <v>0.02200414816943356</v>
       </c>
       <c r="CB1" t="n">
-        <v>0.01329824079877992</v>
+        <v>0.02173180071288092</v>
       </c>
       <c r="CC1" t="n">
-        <v>0.01313498738755343</v>
+        <v>0.02146646592918864</v>
       </c>
       <c r="CD1" t="n">
-        <v>0.01297573934586464</v>
+        <v>0.02120660266281521</v>
       </c>
       <c r="CE1" t="n">
-        <v>0.01282027202347378</v>
+        <v>0.02095369764418484</v>
       </c>
       <c r="CF1" t="n">
-        <v>0.01266859006633044</v>
+        <v>0.02070555038760715</v>
       </c>
       <c r="CG1" t="n">
-        <v>0.01252029001267028</v>
-      </c>
-      <c r="CH1" t="n">
-        <v>0.01237539513999622</v>
-      </c>
-      <c r="CI1" t="n">
-        <v>0.01223380417493106</v>
-      </c>
-      <c r="CJ1" t="n">
-        <v>0.01209540661931139</v>
-      </c>
-      <c r="CK1" t="n">
-        <v>0.01196064631067372</v>
-      </c>
-      <c r="CL1" t="n">
-        <v>0.01182836952252633</v>
+        <v>0.02046354866400239</v>
       </c>
     </row>
   </sheetData>

--- a/Pruebas/Error1.xlsx
+++ b/Pruebas/Error1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CG1"/>
+  <dimension ref="A1:FN1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,259 +423,514 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0.2219520190026448</v>
+        <v>0.2188486746438403</v>
       </c>
       <c r="B1" t="n">
-        <v>0.1598570892368077</v>
+        <v>0.1580573761316624</v>
       </c>
       <c r="C1" t="n">
-        <v>0.1248951605944611</v>
+        <v>0.1236089736414283</v>
       </c>
       <c r="D1" t="n">
-        <v>0.1040602740623999</v>
+        <v>0.1014938830626514</v>
       </c>
       <c r="E1" t="n">
-        <v>0.09105056064828995</v>
+        <v>0.08607661322942307</v>
       </c>
       <c r="F1" t="n">
-        <v>0.08186633053777174</v>
+        <v>0.07532975922715766</v>
       </c>
       <c r="G1" t="n">
-        <v>0.07612582606959785</v>
+        <v>0.06852637791510462</v>
       </c>
       <c r="H1" t="n">
-        <v>0.07130290137676015</v>
+        <v>0.06313846033116781</v>
       </c>
       <c r="I1" t="n">
-        <v>0.06781584320603824</v>
+        <v>0.06015110685035563</v>
       </c>
       <c r="J1" t="n">
-        <v>0.0644669052519338</v>
+        <v>0.05779395253618531</v>
       </c>
       <c r="K1" t="n">
-        <v>0.06077727941645699</v>
+        <v>0.05597021998318823</v>
       </c>
       <c r="L1" t="n">
-        <v>0.05789806543455778</v>
+        <v>0.05441880064048168</v>
       </c>
       <c r="M1" t="n">
-        <v>0.0563033361258612</v>
+        <v>0.05305779848505529</v>
       </c>
       <c r="N1" t="n">
-        <v>0.05538956904987988</v>
+        <v>0.05222778440639732</v>
       </c>
       <c r="O1" t="n">
-        <v>0.05536160131102479</v>
+        <v>0.05111891314023738</v>
       </c>
       <c r="P1" t="n">
-        <v>0.05560913411201231</v>
+        <v>0.05044107714356119</v>
       </c>
       <c r="Q1" t="n">
-        <v>0.05635529631234464</v>
+        <v>0.04966694998878703</v>
       </c>
       <c r="R1" t="n">
-        <v>0.05708785065090551</v>
+        <v>0.04945154775465874</v>
       </c>
       <c r="S1" t="n">
-        <v>0.05739740546259912</v>
+        <v>0.04851716305545215</v>
       </c>
       <c r="T1" t="n">
-        <v>0.05809293177838327</v>
+        <v>0.04721226932568643</v>
       </c>
       <c r="U1" t="n">
-        <v>0.05796506331054287</v>
+        <v>0.04591041176479045</v>
       </c>
       <c r="V1" t="n">
-        <v>0.05735326220742778</v>
+        <v>0.04480375137055573</v>
       </c>
       <c r="W1" t="n">
-        <v>0.05715391125057727</v>
+        <v>0.04356757863171393</v>
       </c>
       <c r="X1" t="n">
-        <v>0.05708855579034938</v>
+        <v>0.04257360979487335</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.05739947595652903</v>
+        <v>0.04181091961317802</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.05719109892944151</v>
+        <v>0.04118073978367144</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.0568835750225578</v>
+        <v>0.04037364806636917</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.05586345365427268</v>
+        <v>0.03975038411068526</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.05464953425422105</v>
+        <v>0.03922984031109111</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.05356260767151159</v>
+        <v>0.0388280895863608</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.05241335883344601</v>
+        <v>0.03826681310110431</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.05120790536874195</v>
+        <v>0.03784723378842575</v>
       </c>
       <c r="AG1" t="n">
-        <v>0.05004207899113067</v>
+        <v>0.0374623718583388</v>
       </c>
       <c r="AH1" t="n">
-        <v>0.04890097744653205</v>
+        <v>0.03716734298477712</v>
       </c>
       <c r="AI1" t="n">
-        <v>0.04777289396364016</v>
+        <v>0.03674379898232764</v>
       </c>
       <c r="AJ1" t="n">
-        <v>0.04657755172024063</v>
+        <v>0.03637074951339316</v>
       </c>
       <c r="AK1" t="n">
-        <v>0.04552964538625146</v>
+        <v>0.03604646515148826</v>
       </c>
       <c r="AL1" t="n">
-        <v>0.04443048527521641</v>
+        <v>0.03567942090511636</v>
       </c>
       <c r="AM1" t="n">
-        <v>0.04346389598732782</v>
+        <v>0.03524570288391694</v>
       </c>
       <c r="AN1" t="n">
-        <v>0.04248765143739928</v>
+        <v>0.03480171115475011</v>
       </c>
       <c r="AO1" t="n">
-        <v>0.04158272074424404</v>
+        <v>0.03433784529982209</v>
       </c>
       <c r="AP1" t="n">
-        <v>0.04069893244720849</v>
+        <v>0.03384970892918964</v>
       </c>
       <c r="AQ1" t="n">
-        <v>0.03981547148592071</v>
+        <v>0.03336655020183787</v>
       </c>
       <c r="AR1" t="n">
-        <v>0.03896023782245393</v>
+        <v>0.03286481830819797</v>
       </c>
       <c r="AS1" t="n">
-        <v>0.03814041205830097</v>
+        <v>0.0323588243983778</v>
       </c>
       <c r="AT1" t="n">
-        <v>0.03734861442027111</v>
+        <v>0.03184154949655484</v>
       </c>
       <c r="AU1" t="n">
-        <v>0.03659363156902518</v>
+        <v>0.03132849189677161</v>
       </c>
       <c r="AV1" t="n">
-        <v>0.03586384088986634</v>
+        <v>0.03081190596675265</v>
       </c>
       <c r="AW1" t="n">
-        <v>0.03515907417064088</v>
+        <v>0.0302901980833233</v>
       </c>
       <c r="AX1" t="n">
-        <v>0.03447880256670175</v>
+        <v>0.02977582250876832</v>
       </c>
       <c r="AY1" t="n">
-        <v>0.03382229103379886</v>
+        <v>0.02929974523870882</v>
       </c>
       <c r="AZ1" t="n">
-        <v>0.03319453838188084</v>
+        <v>0.02881467834140109</v>
       </c>
       <c r="BA1" t="n">
-        <v>0.03259018921373927</v>
+        <v>0.02833276538312256</v>
       </c>
       <c r="BB1" t="n">
-        <v>0.03200093609798925</v>
+        <v>0.02785148264954544</v>
       </c>
       <c r="BC1" t="n">
-        <v>0.03143162398421762</v>
+        <v>0.02737949526052089</v>
       </c>
       <c r="BD1" t="n">
-        <v>0.03088522092610057</v>
+        <v>0.02691810234109776</v>
       </c>
       <c r="BE1" t="n">
-        <v>0.0303512203486862</v>
+        <v>0.02646874194996179</v>
       </c>
       <c r="BF1" t="n">
-        <v>0.02983821745192684</v>
+        <v>0.02603004365283058</v>
       </c>
       <c r="BG1" t="n">
-        <v>0.02934460056499539</v>
+        <v>0.0256054455327453</v>
       </c>
       <c r="BH1" t="n">
-        <v>0.02886623063559341</v>
+        <v>0.02519449238782807</v>
       </c>
       <c r="BI1" t="n">
-        <v>0.02840252951411333</v>
+        <v>0.02479535493802431</v>
       </c>
       <c r="BJ1" t="n">
-        <v>0.02795292527233361</v>
+        <v>0.02440957915536008</v>
       </c>
       <c r="BK1" t="n">
-        <v>0.02751685843385209</v>
+        <v>0.02403413249817339</v>
       </c>
       <c r="BL1" t="n">
-        <v>0.02709378594771726</v>
+        <v>0.02366945897610246</v>
       </c>
       <c r="BM1" t="n">
-        <v>0.02668318361423509</v>
+        <v>0.02331584316517062</v>
       </c>
       <c r="BN1" t="n">
-        <v>0.02628454744339167</v>
+        <v>0.02297136616319806</v>
       </c>
       <c r="BO1" t="n">
-        <v>0.0258973942757665</v>
+        <v>0.02263664397242672</v>
       </c>
       <c r="BP1" t="n">
-        <v>0.02552126189496308</v>
+        <v>0.02232082088717555</v>
       </c>
       <c r="BQ1" t="n">
-        <v>0.02515570879203354</v>
+        <v>0.02200378509359579</v>
       </c>
       <c r="BR1" t="n">
-        <v>0.02480031369516339</v>
+        <v>0.02169510999918514</v>
       </c>
       <c r="BS1" t="n">
-        <v>0.02445467494498936</v>
+        <v>0.02139455314768953</v>
       </c>
       <c r="BT1" t="n">
-        <v>0.02411840977276988</v>
+        <v>0.02110256797714987</v>
       </c>
       <c r="BU1" t="n">
-        <v>0.02379186973467554</v>
+        <v>0.02081807970081325</v>
       </c>
       <c r="BV1" t="n">
-        <v>0.02347458190200581</v>
+        <v>0.02054085709079031</v>
       </c>
       <c r="BW1" t="n">
-        <v>0.02316547544467069</v>
+        <v>0.02027132746013597</v>
       </c>
       <c r="BX1" t="n">
-        <v>0.02286366995679681</v>
+        <v>0.02000850223545707</v>
       </c>
       <c r="BY1" t="n">
-        <v>0.02256953296224272</v>
+        <v>0.01975285754871511</v>
       </c>
       <c r="BZ1" t="n">
-        <v>0.02228330913118421</v>
+        <v>0.01950340160323637</v>
       </c>
       <c r="CA1" t="n">
-        <v>0.02200414816943356</v>
+        <v>0.01925994705329694</v>
       </c>
       <c r="CB1" t="n">
-        <v>0.02173180071288092</v>
+        <v>0.01902298473876159</v>
       </c>
       <c r="CC1" t="n">
-        <v>0.02146646592918864</v>
+        <v>0.01879156380503721</v>
       </c>
       <c r="CD1" t="n">
-        <v>0.02120660266281521</v>
+        <v>0.01856551941943944</v>
       </c>
       <c r="CE1" t="n">
-        <v>0.02095369764418484</v>
+        <v>0.01834468871984581</v>
       </c>
       <c r="CF1" t="n">
-        <v>0.02070555038760715</v>
+        <v>0.01812891183219315</v>
       </c>
       <c r="CG1" t="n">
-        <v>0.02046354866400239</v>
+        <v>0.0179180325665496</v>
+      </c>
+      <c r="CH1" t="n">
+        <v>0.01771189887976505</v>
+      </c>
+      <c r="CI1" t="n">
+        <v>0.01751092182532415</v>
+      </c>
+      <c r="CJ1" t="n">
+        <v>0.01731433728868615</v>
+      </c>
+      <c r="CK1" t="n">
+        <v>0.01712201506812846</v>
+      </c>
+      <c r="CL1" t="n">
+        <v>0.01693382838961239</v>
+      </c>
+      <c r="CM1" t="n">
+        <v>0.01674965409617533</v>
+      </c>
+      <c r="CN1" t="n">
+        <v>0.01656937275456791</v>
+      </c>
+      <c r="CO1" t="n">
+        <v>0.0163934066559966</v>
+      </c>
+      <c r="CP1" t="n">
+        <v>0.0162210512085927</v>
+      </c>
+      <c r="CQ1" t="n">
+        <v>0.01605220470318144</v>
+      </c>
+      <c r="CR1" t="n">
+        <v>0.01588676819201766</v>
+      </c>
+      <c r="CS1" t="n">
+        <v>0.01572861303170114</v>
+      </c>
+      <c r="CT1" t="n">
+        <v>0.01557326031283776</v>
+      </c>
+      <c r="CU1" t="n">
+        <v>0.01541724258759718</v>
+      </c>
+      <c r="CV1" t="n">
+        <v>0.01526761061772967</v>
+      </c>
+      <c r="CW1" t="n">
+        <v>0.01511752184080642</v>
+      </c>
+      <c r="CX1" t="n">
+        <v>0.01497075610209471</v>
+      </c>
+      <c r="CY1" t="n">
+        <v>0.01483001790393968</v>
+      </c>
+      <c r="CZ1" t="n">
+        <v>0.01468825795199972</v>
+      </c>
+      <c r="DA1" t="n">
+        <v>0.01454916388393903</v>
+      </c>
+      <c r="DB1" t="n">
+        <v>0.01441300866089661</v>
+      </c>
+      <c r="DC1" t="n">
+        <v>0.01428216534968891</v>
+      </c>
+      <c r="DD1" t="n">
+        <v>0.01415085591563178</v>
+      </c>
+      <c r="DE1" t="n">
+        <v>0.01402191603050586</v>
+      </c>
+      <c r="DF1" t="n">
+        <v>0.01389528377393866</v>
+      </c>
+      <c r="DG1" t="n">
+        <v>0.01377089921586007</v>
+      </c>
+      <c r="DH1" t="n">
+        <v>0.01365109592996315</v>
+      </c>
+      <c r="DI1" t="n">
+        <v>0.01353097670785872</v>
+      </c>
+      <c r="DJ1" t="n">
+        <v>0.0134129393565405</v>
+      </c>
+      <c r="DK1" t="n">
+        <v>0.01329908833147081</v>
+      </c>
+      <c r="DL1" t="n">
+        <v>0.01318705181705287</v>
+      </c>
+      <c r="DM1" t="n">
+        <v>0.01307485987632358</v>
+      </c>
+      <c r="DN1" t="n">
+        <v>0.01296455242210314</v>
+      </c>
+      <c r="DO1" t="n">
+        <v>0.01285608289221868</v>
+      </c>
+      <c r="DP1" t="n">
+        <v>0.01274940620715052</v>
+      </c>
+      <c r="DQ1" t="n">
+        <v>0.01264447871503271</v>
+      </c>
+      <c r="DR1" t="n">
+        <v>0.0125412581386908</v>
+      </c>
+      <c r="DS1" t="n">
+        <v>0.01243996233157393</v>
+      </c>
+      <c r="DT1" t="n">
+        <v>0.01234002724483704</v>
+      </c>
+      <c r="DU1" t="n">
+        <v>0.01224168027616198</v>
+      </c>
+      <c r="DV1" t="n">
+        <v>0.01214488414028944</v>
+      </c>
+      <c r="DW1" t="n">
+        <v>0.01204960269215303</v>
+      </c>
+      <c r="DX1" t="n">
+        <v>0.01195580088506839</v>
+      </c>
+      <c r="DY1" t="n">
+        <v>0.01186344473060937</v>
+      </c>
+      <c r="DZ1" t="n">
+        <v>0.0117725012601083</v>
+      </c>
+      <c r="EA1" t="n">
+        <v>0.01168488536651729</v>
+      </c>
+      <c r="EB1" t="n">
+        <v>0.01159664103090668</v>
+      </c>
+      <c r="EC1" t="n">
+        <v>0.01150971721311087</v>
+      </c>
+      <c r="ED1" t="n">
+        <v>0.01142408462326839</v>
+      </c>
+      <c r="EE1" t="n">
+        <v>0.0113410688795952</v>
+      </c>
+      <c r="EF1" t="n">
+        <v>0.01125791391184377</v>
+      </c>
+      <c r="EG1" t="n">
+        <v>0.01117596789291036</v>
+      </c>
+      <c r="EH1" t="n">
+        <v>0.01109646505359711</v>
+      </c>
+      <c r="EI1" t="n">
+        <v>0.01101684149449458</v>
+      </c>
+      <c r="EJ1" t="n">
+        <v>0.01093954379642282</v>
+      </c>
+      <c r="EK1" t="n">
+        <v>0.01086214674761039</v>
+      </c>
+      <c r="EL1" t="n">
+        <v>0.01078583628008977</v>
+      </c>
+      <c r="EM1" t="n">
+        <v>0.01071170506191991</v>
+      </c>
+      <c r="EN1" t="n">
+        <v>0.01063748587931065</v>
+      </c>
+      <c r="EO1" t="n">
+        <v>0.01056428750074855</v>
+      </c>
+      <c r="EP1" t="n">
+        <v>0.01049208905268674</v>
+      </c>
+      <c r="EQ1" t="n">
+        <v>0.01042087022466411</v>
+      </c>
+      <c r="ER1" t="n">
+        <v>0.01035061125057513</v>
+      </c>
+      <c r="ES1" t="n">
+        <v>0.01028129289067319</v>
+      </c>
+      <c r="ET1" t="n">
+        <v>0.01021389313107178</v>
+      </c>
+      <c r="EU1" t="n">
+        <v>0.01014734885981348</v>
+      </c>
+      <c r="EV1" t="n">
+        <v>0.01008071938341966</v>
+      </c>
+      <c r="EW1" t="n">
+        <v>0.01001495901063212</v>
+      </c>
+      <c r="EX1" t="n">
+        <v>0.009950050869149291</v>
+      </c>
+      <c r="EY1" t="n">
+        <v>0.009885978519543254</v>
+      </c>
+      <c r="EZ1" t="n">
+        <v>0.009822725941523638</v>
+      </c>
+      <c r="FA1" t="n">
+        <v>0.009760277520717571</v>
+      </c>
+      <c r="FB1" t="n">
+        <v>0.009698618035943433</v>
+      </c>
+      <c r="FC1" t="n">
+        <v>0.00963773264695731</v>
+      </c>
+      <c r="FD1" t="n">
+        <v>0.009577606882651997</v>
+      </c>
+      <c r="FE1" t="n">
+        <v>0.009518226629689404</v>
+      </c>
+      <c r="FF1" t="n">
+        <v>0.009459673040181051</v>
+      </c>
+      <c r="FG1" t="n">
+        <v>0.009401741428307037</v>
+      </c>
+      <c r="FH1" t="n">
+        <v>0.009344515062112656</v>
+      </c>
+      <c r="FI1" t="n">
+        <v>0.009288071026722597</v>
+      </c>
+      <c r="FJ1" t="n">
+        <v>0.009232215792655568</v>
+      </c>
+      <c r="FK1" t="n">
+        <v>0.009177028379757601</v>
+      </c>
+      <c r="FL1" t="n">
+        <v>0.009123277210359186</v>
+      </c>
+      <c r="FM1" t="n">
+        <v>0.009069464345685771</v>
+      </c>
+      <c r="FN1" t="n">
+        <v>0.009016281527712389</v>
       </c>
     </row>
   </sheetData>
